--- a/OBPIT/Задание 1.xlsx
+++ b/OBPIT/Задание 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" state="visible" r:id="rId1"/>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">Таким образом, полученные индексы конкурентоспособности
 продукции свидетельствуют о том, что конкурентоспособность продукта А (IкА = 0,88) меньше предприятия конкурента.
 Продукты Б (IкБ = 1,03) и В (IкВ = 1,05), выпускаемые предприятием,
-более конкурентоспособны по сравнению с аналогами конкурента. </t>
+более конкурентоспособны по сравнению с аналогами конкурента. Также, основываясь на индексе конкурентоспособности товарной массы (Ik=1,58), можно сделать вывод о том, что товары, производимые на предприятии, являются конкурентоспособными на рынке.</t>
   </si>
   <si>
     <t xml:space="preserve">Частные индексы технических параметров (индексы качества)</t>
@@ -486,31 +486,31 @@
   </numFmts>
   <fonts count="5">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Cambria Math"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
     </font>
     <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
       <name val="Courier New"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -922,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +940,6 @@
     <xf fontId="1" fillId="0" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -989,9 +988,6 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,9 +999,6 @@
     </xf>
     <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3000,7 +2993,7 @@
       <c r="K1" s="6">
         <v>4</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
@@ -3028,28 +3021,28 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>730</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>620</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>810</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>850</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>505</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>915</v>
       </c>
       <c r="I3" s="4"/>
@@ -3057,335 +3050,335 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>600</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>510</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>705</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>960</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>510</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>690</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f>605+5*$K1</f>
         <v>625</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>730-2*$K1</f>
         <v>722</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f>670+1*$K1</f>
         <v>674</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f>800+1*$K1</f>
         <v>804</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>560+2*$K1</f>
         <v>568</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f>810-2*$K1</f>
         <v>802</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <f>C4/C3*100</f>
         <v>82.191780821917803</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f t="shared" ref="D6:H6" si="0">D4/D3*100</f>
         <v>82.258064516129039</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>87.037037037037038</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>112.94117647058823</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <f t="shared" si="0"/>
         <v>100.99009900990099</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
         <v>75.409836065573771</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="str">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="str">
         <f t="shared" ref="C7:H7" si="1">IF(C6&gt;110, "Высокий","Низкий")</f>
         <v>Низкий</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Низкий</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="E7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Низкий</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Высокий</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>Низкий</v>
       </c>
-      <c r="H7" s="22" t="str">
+      <c r="H7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>Низкий</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f>C4/C5*100</f>
         <v>96</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <f t="shared" ref="D8:H8" si="2">D4/D5*100</f>
         <v>70.637119113573405</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="2"/>
         <v>104.5994065281899</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="2"/>
         <v>119.40298507462686</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <f t="shared" si="2"/>
         <v>89.788732394366207</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>86.034912718204495</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="str">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="str">
         <f t="shared" ref="C9:H9" si="3">IF(C8&gt;100, "Высокий","Низкий")</f>
         <v>Низкий</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Низкий</v>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Высокий</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Высокий</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Низкий</v>
       </c>
-      <c r="H9" s="22" t="str">
+      <c r="H9" s="21" t="str">
         <f t="shared" si="3"/>
         <v>Низкий</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" ht="29.399999999999999" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="25" t="str">
         <f t="shared" ref="C10:G10" si="4">IF(AND(C7="Низкий",C9="Низкий"),"Дохлая собака",IF(AND(C7="Низкий",C9="Высокий"),"Дойная корова",IF(AND(C7="Высокий",C9="Высокий"),"Звезда",IF(AND(C7="Высокий",C9="Низкий"),"Дикая кошка"))))</f>
         <v xml:space="preserve">Дохлая собака</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="25" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Дохлая собака</v>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="25" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Дойная корова</v>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="25" t="str">
         <f t="shared" si="4"/>
         <v>Звезда</v>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="25" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Дохлая собака</v>
       </c>
-      <c r="H10" s="28" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(AND(H7="Низкий",H9="Низкий"),"Дохлая собака",IF(AND(H7="Низкий",H9="Высокий"),"Дойная корова",IF(AND(H7="Высокий",H9="Высокий"),"Звезда",IF(AND(H7="Высокий",H9="Низкий"),"Дикая кошка"))))</f>
         <v xml:space="preserve">Дохлая собака</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" ht="114">
-      <c r="A11" s="29"/>
-      <c r="M11" s="30" t="s">
+      <c r="A11" s="18"/>
+      <c r="M11" s="27" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" ht="128.40000000000001" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="18"/>
       <c r="M12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" ht="14.4">
-      <c r="A13" s="29"/>
+      <c r="A13" s="18"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14">
-      <c r="A14" s="29"/>
+      <c r="A14" s="18"/>
     </row>
     <row r="15" ht="14.4" customHeight="1"/>
     <row r="16">
-      <c r="A16" s="29"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" ht="16.199999999999999" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="18" ht="16.199999999999999" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="18"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" ht="16.199999999999999" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="18"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" ht="16.199999999999999" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="18"/>
     </row>
     <row r="21" ht="16.199999999999999" customHeight="1"/>
     <row r="22" ht="16.199999999999999" customHeight="1"/>
@@ -3401,7 +3394,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3410,7 +3403,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
       <selection activeCell="H32" activeCellId="0" sqref="H32:M37"/>
     </sheetView>
   </sheetViews>
@@ -3449,11 +3442,11 @@
       <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="13">
         <v>4</v>
       </c>
     </row>
@@ -3479,467 +3472,467 @@
         <v>30</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="31">
         <f>68-1*L1</f>
         <v>64</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="31">
         <f>90+1.5*L1</f>
         <v>96</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <f>87+0.5*L1</f>
         <v>89</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="31">
         <v>89</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="31">
         <v>88</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="31">
         <v>78</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>0.17999999999999999</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <f>48-1*L1</f>
         <v>44</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="33">
         <f>49+1.5*L1</f>
         <v>55</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="33">
         <f>50+0.5*L1</f>
         <v>52</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="33">
         <v>51</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="33">
         <v>52</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="33">
         <v>53</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <v>0.11</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <f>30+0.5*L1</f>
         <v>32</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <f>29-0.2*L1</f>
         <v>28.199999999999999</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="33">
         <f>28+0.3*L1</f>
         <v>29.199999999999999</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="33">
         <v>27</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="33">
         <v>26</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="33">
         <v>25</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <v>0.17000000000000001</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="33">
         <f>71+0.2*L1</f>
         <v>71.799999999999997</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="33">
         <f>78-0.1*L1</f>
         <v>77.599999999999994</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="33">
         <f>69+0.3*L1</f>
         <v>70.200000000000003</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="33">
         <v>88</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="33">
         <v>87</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="33">
         <v>74</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <v>0.16</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="33">
         <f>185-0.5*L1</f>
         <v>183</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <f>163+0.5*L1</f>
         <v>165</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="33">
         <f>168+1*L1</f>
         <v>172</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="33">
         <v>171</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="33">
         <v>173</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="33">
         <v>172</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <v>0.10000000000000001</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="33">
         <v>6</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="33">
         <v>4</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="33">
         <v>7</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="33">
         <v>3</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="33">
         <v>4</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="33">
         <v>6</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <v>2.e-002</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="33">
         <v>9</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="33">
         <v>10</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="33">
         <v>7</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="33">
         <v>7</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="33">
         <v>6</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="33">
         <v>5</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="34">
         <v>8.0000000000000002e-002</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="33">
         <f>1.67</f>
         <v>1.6699999999999999</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="33">
         <f>1.56+0.2*L1</f>
         <v>2.3600000000000003</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="33">
         <f>1.58+0.4*L1</f>
         <v>3.1800000000000002</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="33">
         <v>1.5900000000000001</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="33">
         <v>1.6100000000000001</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="33">
         <v>1.73</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="34">
         <v>5.0000000000000003e-002</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" ht="14.4" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="33">
         <f>1.41+0.1*L1</f>
         <v>1.8100000000000001</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="33">
         <f>1.35</f>
         <v>1.3500000000000001</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="33">
         <f>1.33+0.1*L1</f>
         <v>1.73</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="33">
         <v>1.3100000000000001</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="33">
         <v>1.29</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="33">
         <v>1.27</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="34">
         <v>0.13</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="33">
         <f>11.4+0.5*L1</f>
         <v>13.4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="33">
         <f>11.4+0.3*L1</f>
         <v>12.6</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="33">
         <f>11.5-0.1*L1</f>
         <v>11.1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="33">
         <v>11.6</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="33">
         <v>11</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="33">
         <v>12.1</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="33">
         <f>27.1+0.1*L1</f>
         <v>27.5</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="33">
         <f>27.2-0.1*L1</f>
         <v>26.800000000000001</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="33">
         <f>27.3+0.3*L1</f>
         <v>28.5</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="33">
         <v>28.800000000000001</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="33">
         <v>29</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="33">
         <v>31</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="33">
         <f>1.1+0.5*L1</f>
         <v>3.1000000000000001</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="33">
         <f>1.25+0.2*L1</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="33">
         <f>1.27+0.1*L1</f>
         <v>1.6699999999999999</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="33">
         <v>1.29</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="33">
         <v>1.3100000000000001</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="33">
         <v>1.5</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" ht="14.4" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>0.23000000000000001</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>0.41999999999999998</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <v>0.34999999999999998</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -3956,14 +3949,14 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" ht="14.4" customHeight="1">
       <c r="A19" s="3"/>
@@ -3978,12 +3971,12 @@
       <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="43"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="44"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" ht="14.4" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -3994,419 +3987,419 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="43"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="44"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" ht="14.4" customHeight="1">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="42">
         <f t="shared" ref="D21:D22" si="5">C3/F3*$I3</f>
         <v>0.12943820224719099</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="43">
         <f t="shared" ref="E21:F27" si="6">D3/G3*$I3</f>
         <v>0.19636363636363635</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="44">
         <f>E3/H3*$I3</f>
         <v>0.20538461538461536</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="44"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" ht="14.4" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="45">
         <f t="shared" si="5"/>
         <v>9.4901960784313732e-002</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="46">
         <f t="shared" si="6"/>
         <v>0.11634615384615385</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="47">
         <f t="shared" si="6"/>
         <v>0.1079245283018868</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="44"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" ht="14.4" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="45">
         <f>F5/C5*$I5</f>
         <v>0.14343750000000002</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="46">
         <f>G5/D5*$I5</f>
         <v>0.15673758865248227</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="47">
         <f>H5/E5*$I5</f>
         <v>0.14554794520547945</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="43"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="44"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" ht="14.4" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="45">
         <f t="shared" ref="D24:D27" si="7">C6/F6*$I6</f>
         <v>0.13054545454545455</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="46">
         <f t="shared" si="6"/>
         <v>0.14271264367816092</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="47">
         <f t="shared" si="6"/>
         <v>0.15178378378378379</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="43"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="44"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" ht="14.4" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="45">
         <f t="shared" si="7"/>
         <v>0.10701754385964912</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="46">
         <f t="shared" si="6"/>
         <v>9.5375722543352609e-002</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="47">
         <f t="shared" si="6"/>
         <v>0.10000000000000001</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="44"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" ht="14.4" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="45">
         <f t="shared" si="7"/>
         <v>4.0000000000000001e-002</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="46">
         <f t="shared" si="6"/>
         <v>2.e-002</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="47">
         <f t="shared" si="6"/>
         <v>2.3333333333333334e-002</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="44"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" ht="14.4" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="45">
         <f t="shared" si="7"/>
         <v>0.10285714285714287</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="46">
         <f t="shared" si="6"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="47">
         <f t="shared" si="6"/>
         <v>0.11199999999999999</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="44"/>
+      <c r="M27" s="41"/>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="45">
         <f t="shared" ref="D28:F29" si="8">F10/C10*$I10</f>
         <v>4.7604790419161686e-002</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="46">
         <f t="shared" si="8"/>
         <v>3.411016949152542e-002</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="47">
         <f t="shared" si="8"/>
         <v>2.7201257861635221e-002</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="44"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" ht="14.4" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="45">
         <f t="shared" si="8"/>
         <v>9.4088397790055261e-002</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="46">
         <f t="shared" si="8"/>
         <v>0.12422222222222222</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="47">
         <f t="shared" si="8"/>
         <v>9.5433526011560701e-002</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="44"/>
+      <c r="M29" s="41"/>
     </row>
     <row r="30" ht="14.4" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="45">
         <f>SUM(D21:D29)</f>
         <v>0.88989099250296821</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="46">
         <f>SUM(E21:E29)</f>
         <v>1.0192014701308669</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="47">
         <f>SUM(F21:F29)</f>
         <v>0.9686089898822946</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="44"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" ht="14.4" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="45">
         <f>(C12+C13)/(F12+F13)</f>
         <v>1.0123762376237624</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="46">
         <f>(D12+D13)/(G12+G13)</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="47">
         <f>(E12+E13)/(H12+H13)</f>
         <v>0.91879350348027844</v>
       </c>
-      <c r="H31" s="43"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="44"/>
+      <c r="M31" s="41"/>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="48">
         <f>D30/D31</f>
         <v>0.87901212951393437</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="49">
         <f>E30/E31</f>
         <v>1.0347223047013878</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="50">
         <f>F30/F31</f>
         <v>1.0542183703011843</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
     </row>
     <row r="33" ht="14.4" customHeight="1">
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="57"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="54"/>
     </row>
     <row r="34" ht="14.4" customHeight="1">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58">
         <f>C15*(C14*D32/F14)+D15*(D14*E32/G14)+E15*(E14*F32/H14)</f>
         <v>1.5767085555830298</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="57"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="54"/>
     </row>
     <row r="35" ht="14.4" customHeight="1">
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="57"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="54"/>
     </row>
     <row r="36" ht="14.4" customHeight="1">
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" ht="14.4" customHeight="1">
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4425,7 +4418,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4433,7 +4426,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
       <selection activeCell="N47" activeCellId="0" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -4467,10 +4460,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14">
+      <c r="G1" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4487,325 +4480,325 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="60">
         <v>15.199999999999999</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="60">
         <f>B3-0.8*G1</f>
         <v>12</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <f>B3+1.3*G1</f>
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="63">
         <f>8.4*G1</f>
         <v>33.600000000000001</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="63">
         <f>B4+0.5*G1</f>
         <v>35.600000000000001</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="64">
         <f>B4+0.7*G1</f>
         <v>36.399999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="63">
         <v>31.5</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="63">
         <f>B5+1.9*G1</f>
         <v>39.100000000000001</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="64">
         <f>B5-0.3*G1</f>
         <v>30.300000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="63">
         <v>17</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="63">
         <f>B6+0.2*G1</f>
         <v>17.800000000000001</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="64">
         <f>B6+0.4*G1</f>
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="63">
         <v>211.5</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="63">
         <f>B7-0.1*G1</f>
         <v>211.09999999999999</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="64">
         <f>B7+0.2*G1</f>
         <v>212.30000000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="63">
         <v>26.899999999999999</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="63">
         <f>B8+0.7*G1</f>
         <v>29.699999999999999</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="64">
         <f>B8+0.3*G1</f>
         <v>28.099999999999998</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="63">
         <f>2.4*G1</f>
         <v>9.5999999999999996</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="63">
         <f>B9+0.1*G1</f>
         <v>10</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="64">
         <f>B9-0.1*G1</f>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="63">
         <v>55.600000000000001</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="63">
         <f>B10-0.3*G1</f>
         <v>54.399999999999999</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="64">
         <f>B10-0.5*G1</f>
         <v>53.600000000000001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="63">
         <v>183.09999999999999</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="63">
         <f>B11+0.3*G1</f>
         <v>184.29999999999998</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="64">
         <f>B11+0.1*G1</f>
         <v>183.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="63">
         <v>320.39999999999998</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="63">
         <f>B12+0.2*G1</f>
         <v>321.19999999999999</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="64">
         <f>B12-0.1*G1</f>
         <v>320</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="63">
         <v>15.9</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="63">
         <f>B13+1.3*G1</f>
         <v>21.100000000000001</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="64">
         <f>B13+1*G1</f>
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="63">
         <f>11.8*G1</f>
         <v>47.200000000000003</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="63">
         <f>B14+0.8*G1</f>
         <v>50.400000000000006</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="64">
         <f>B14-0.2*G1</f>
         <v>46.400000000000006</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="66">
+      <c r="B15" s="63">
         <v>105.40000000000001</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="63">
         <f>B15+0.7*G1</f>
         <v>108.2</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="64">
         <f>B15+0.3*G1</f>
         <v>106.60000000000001</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="66">
+      <c r="B16" s="63">
         <v>15.4</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="63">
         <f>B16-0.1*G1</f>
         <v>15</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="64">
         <f>B16+0.1*G1</f>
         <v>15.800000000000001</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="66">
+      <c r="B17" s="63">
         <v>61.299999999999997</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="63">
         <f>B17+0.3*G1</f>
         <v>62.5</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="64">
         <f>B17+0.2*G1</f>
         <v>62.099999999999994</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="66">
+      <c r="B18" s="63">
         <v>30.199999999999999</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="63">
         <f>B18+1.1*G1</f>
         <v>34.600000000000001</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="64">
         <f>B18+0.8*G1</f>
         <v>33.399999999999999</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="63">
         <v>277.39999999999998</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="63">
         <f>B19+0.3*G1</f>
         <v>278.59999999999997</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="64">
         <f>B19+0.5*G1</f>
         <v>279.39999999999998</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="63">
         <v>75.599999999999994</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="63">
         <f>B20-0.4*G1</f>
         <v>74</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="64">
         <f>B20-0.3*G1</f>
         <v>74.399999999999991</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="66">
+      <c r="B21" s="63">
         <v>53.799999999999997</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="63">
         <f>B21+0.1*G1</f>
         <v>54.199999999999996</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="64">
         <f>B21+0.5*G1</f>
         <v>55.799999999999997</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="69">
+      <c r="B22" s="66">
         <f>14.3*G1</f>
         <v>57.200000000000003</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="66">
         <f>B22-0.2*G1</f>
         <v>56.400000000000006</v>
       </c>
-      <c r="D22" s="70">
+      <c r="D22" s="67">
         <f>B22+0.3*G1</f>
         <v>58.400000000000006</v>
       </c>
@@ -4878,54 +4871,54 @@
       <c r="R26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="68">
         <v>320.39999999999998</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="68">
         <f>B27+0.2*G1</f>
         <v>321.19999999999999</v>
       </c>
-      <c r="D27" s="71">
+      <c r="D27" s="68">
         <f>B27-0.1*G1</f>
         <v>320</v>
       </c>
-      <c r="E27" s="71">
-        <f t="shared" ref="E27:E41" si="9">SUM(B27:D27)</f>
+      <c r="E27" s="68">
+        <f t="shared" ref="E27:E46" si="9">SUM(B27:D27)</f>
         <v>961.59999999999991</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="69">
         <f>E27/E47*100</f>
         <v>19.253949502432771</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="69">
         <f>F27</f>
         <v>19.253949502432771</v>
       </c>
-      <c r="H27" s="73" t="str">
-        <f>IF(AND(G27&gt;0,G27&lt;=80),"A",IF(AND(G27&gt;80,G27&lt;=95),"B","C"))</f>
+      <c r="H27" s="70" t="str">
+        <f t="shared" ref="H27:H46" si="10">IF(AND(G27&gt;0,G27&lt;=80),"A",IF(AND(G27&gt;80,G27&lt;=95),"B","C"))</f>
         <v>A</v>
       </c>
-      <c r="I27" s="72">
-        <f t="shared" ref="I27:I41" si="10">SUM(B27:D27)/3</f>
+      <c r="I27" s="69">
+        <f t="shared" ref="I27:I46" si="11">SUM(B27:D27)/3</f>
         <v>320.5333333333333</v>
       </c>
-      <c r="J27" s="72">
-        <f t="shared" ref="J27:J41" si="11">SQRT(((B27-I27)^2+(C27-I27)^2+(D27-I27)^2)/3)</f>
+      <c r="J27" s="69">
+        <f t="shared" ref="J27:J46" si="12">SQRT(((B27-I27)^2+(C27-I27)^2+(D27-I27)^2)/3)</f>
         <v>0.49888765156985582</v>
       </c>
-      <c r="K27" s="72">
-        <f t="shared" ref="K27:K41" si="12">J27/I27*100</f>
+      <c r="K27" s="69">
+        <f t="shared" ref="K27:K46" si="13">J27/I27*100</f>
         <v>0.15564298613868216</v>
       </c>
-      <c r="L27" s="9" t="str">
-        <f t="shared" ref="L27:L41" si="13">IF(AND(K27&gt;0,K27&lt;=9),"X",IF(AND(K27&gt;10,K27&lt;=25),"Y","Z"))</f>
+      <c r="L27" s="8" t="str">
+        <f t="shared" ref="L27:L46" si="14">IF(AND(K27&gt;0,K27&lt;=9),"X",IF(AND(K27&gt;10,K27&lt;=25),"Y","Z"))</f>
         <v>X</v>
       </c>
-      <c r="M27" s="74" t="str">
-        <f t="shared" ref="M27:M41" si="14">_xlfn.CONCAT(H27,L27)</f>
+      <c r="M27" s="71" t="str">
+        <f t="shared" ref="M27:M46" si="15">_xlfn.CONCAT(H27,L27)</f>
         <v>AX</v>
       </c>
       <c r="O27" s="2"/>
@@ -4940,1146 +4933,1146 @@
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="72">
         <v>277.39999999999998</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="72">
         <f>B28+0.3*G1</f>
         <v>278.59999999999997</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="72">
         <f>B28+0.5*G1</f>
         <v>279.39999999999998</v>
       </c>
-      <c r="E28" s="75">
+      <c r="E28" s="72">
         <f t="shared" si="9"/>
         <v>835.39999999999998</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="73">
         <f>E28/E47*100</f>
         <v>16.727068858498686</v>
       </c>
-      <c r="G28" s="76">
-        <f>G27+F28</f>
+      <c r="G28" s="73">
+        <f t="shared" ref="G28:G46" si="16">G27+F28</f>
         <v>35.981018360931458</v>
       </c>
-      <c r="H28" s="73" t="str">
-        <f>IF(AND(G28&gt;0,G28&lt;=80),"A",IF(AND(G28&gt;80,G28&lt;=95),"B","C"))</f>
+      <c r="H28" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I28" s="76">
-        <f t="shared" si="10"/>
+      <c r="I28" s="73">
+        <f t="shared" si="11"/>
         <v>278.46666666666664</v>
       </c>
-      <c r="J28" s="76">
-        <f t="shared" si="11"/>
+      <c r="J28" s="73">
+        <f t="shared" si="12"/>
         <v>0.82192186706252957</v>
       </c>
-      <c r="K28" s="76">
-        <f t="shared" si="12"/>
+      <c r="K28" s="73">
+        <f t="shared" si="13"/>
         <v>0.29515987565089646</v>
       </c>
-      <c r="L28" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L28" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M28" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M28" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="77" t="s">
+      <c r="P28" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="R28" s="74" t="s">
+      <c r="R28" s="71" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="72">
         <v>211.5</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="72">
         <f>B29-0.1*G1</f>
         <v>211.09999999999999</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="72">
         <f>B29+0.2*G1</f>
         <v>212.30000000000001</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="72">
         <f t="shared" si="9"/>
         <v>634.90000000000009</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="73">
         <f>E29/E47*100</f>
         <v>12.712492241154919</v>
       </c>
-      <c r="G29" s="76">
-        <f>G28+F29</f>
+      <c r="G29" s="73">
+        <f t="shared" si="16"/>
         <v>48.693510602086377</v>
       </c>
-      <c r="H29" s="73" t="str">
-        <f>IF(AND(G29&gt;0,G29&lt;=80),"A",IF(AND(G29&gt;80,G29&lt;=95),"B","C"))</f>
+      <c r="H29" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I29" s="76">
-        <f t="shared" si="10"/>
+      <c r="I29" s="73">
+        <f t="shared" si="11"/>
         <v>211.63333333333335</v>
       </c>
-      <c r="J29" s="76">
-        <f t="shared" si="11"/>
+      <c r="J29" s="73">
+        <f t="shared" si="12"/>
         <v>0.49888765156986592</v>
       </c>
-      <c r="K29" s="76">
-        <f t="shared" si="12"/>
+      <c r="K29" s="73">
+        <f t="shared" si="13"/>
         <v>0.23573207665925303</v>
       </c>
-      <c r="L29" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L29" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M29" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M29" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P29" s="78" t="s">
+      <c r="P29" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="12">
         <v>3</v>
       </c>
-      <c r="R29" s="22" t="s">
+      <c r="R29" s="21" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="72">
         <v>183.09999999999999</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="72">
         <f>B30+0.3*G1</f>
         <v>184.29999999999998</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="72">
         <f>B30+0.1*G1</f>
         <v>183.5</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="72">
         <f t="shared" si="9"/>
         <v>550.89999999999998</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="73">
         <f>E30/E47*100</f>
         <v>11.030574855335081</v>
       </c>
-      <c r="G30" s="76">
-        <f>G29+F30</f>
+      <c r="G30" s="73">
+        <f t="shared" si="16"/>
         <v>59.724085457421459</v>
       </c>
-      <c r="H30" s="73" t="str">
-        <f>IF(AND(G30&gt;0,G30&lt;=80),"A",IF(AND(G30&gt;80,G30&lt;=95),"B","C"))</f>
+      <c r="H30" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I30" s="76">
-        <f t="shared" si="10"/>
+      <c r="I30" s="73">
+        <f t="shared" si="11"/>
         <v>183.63333333333333</v>
       </c>
-      <c r="J30" s="76">
-        <f t="shared" si="11"/>
+      <c r="J30" s="73">
+        <f t="shared" si="12"/>
         <v>0.49888765156985332</v>
       </c>
-      <c r="K30" s="76">
-        <f>J30/I30*100</f>
+      <c r="K30" s="73">
+        <f t="shared" si="13"/>
         <v>0.27167597653105102</v>
       </c>
-      <c r="L30" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L30" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M30" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M30" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="P30" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q30" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="80" t="s">
+      <c r="R30" s="77" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="72">
         <v>105.40000000000001</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="72">
         <f>B31+0.7*G1</f>
         <v>108.2</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="72">
         <f>B31+0.3*G1</f>
         <v>106.60000000000001</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="72">
         <f t="shared" si="9"/>
         <v>320.20000000000005</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="73">
         <f>E31/E47*100</f>
         <v>6.4113088921370371</v>
       </c>
-      <c r="G31" s="76">
-        <f>G30+F31</f>
+      <c r="G31" s="73">
+        <f t="shared" si="16"/>
         <v>66.135394349558496</v>
       </c>
-      <c r="H31" s="73" t="str">
-        <f>IF(AND(G31&gt;0,G31&lt;=80),"A",IF(AND(G31&gt;80,G31&lt;=95),"B","C"))</f>
+      <c r="H31" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I31" s="76">
-        <f t="shared" si="10"/>
+      <c r="I31" s="73">
+        <f t="shared" si="11"/>
         <v>106.73333333333335</v>
       </c>
-      <c r="J31" s="76">
-        <f t="shared" si="11"/>
+      <c r="J31" s="73">
+        <f t="shared" si="12"/>
         <v>1.1469767022723489</v>
       </c>
-      <c r="K31" s="76">
-        <f t="shared" si="12"/>
+      <c r="K31" s="73">
+        <f t="shared" si="13"/>
         <v>1.0746190214918945</v>
       </c>
-      <c r="L31" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L31" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M31" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M31" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="72">
         <v>75.599999999999994</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="72">
         <f>B32-0.4*G1</f>
         <v>74</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="72">
         <f>B32-0.3*G1</f>
         <v>74.399999999999991</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="72">
         <f t="shared" si="9"/>
         <v>224</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="73">
         <f>E32/E47*100</f>
         <v>4.4851130288528918</v>
       </c>
-      <c r="G32" s="76">
-        <f>G31+F32</f>
+      <c r="G32" s="73">
+        <f t="shared" si="16"/>
         <v>70.620507378411389</v>
       </c>
-      <c r="H32" s="73" t="str">
-        <f>IF(AND(G32&gt;0,G32&lt;=80),"A",IF(AND(G32&gt;80,G32&lt;=95),"B","C"))</f>
+      <c r="H32" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I32" s="76">
-        <f t="shared" si="10"/>
+      <c r="I32" s="73">
+        <f t="shared" si="11"/>
         <v>74.666666666666671</v>
       </c>
-      <c r="J32" s="76">
-        <f t="shared" si="11"/>
+      <c r="J32" s="73">
+        <f t="shared" si="12"/>
         <v>0.6798692684790365</v>
       </c>
-      <c r="K32" s="76">
-        <f t="shared" si="12"/>
+      <c r="K32" s="73">
+        <f t="shared" si="13"/>
         <v>0.91053919885585244</v>
       </c>
-      <c r="L32" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L32" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M32" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M32" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="78" t="s">
         <v>133</v>
       </c>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="83"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="80"/>
     </row>
     <row r="33">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="72">
         <v>61.299999999999997</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="72">
         <f>B33+0.3*G1</f>
         <v>62.5</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="72">
         <f>B33+0.2*G1</f>
         <v>62.099999999999994</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="72">
         <f t="shared" si="9"/>
         <v>185.89999999999998</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="73">
         <f>E33/E47*100</f>
         <v>3.7222433574274669</v>
       </c>
-      <c r="G33" s="76">
-        <f>G32+F33</f>
+      <c r="G33" s="73">
+        <f t="shared" si="16"/>
         <v>74.342750735838862</v>
       </c>
-      <c r="H33" s="73" t="str">
-        <f>IF(AND(G33&gt;0,G33&lt;=80),"A",IF(AND(G33&gt;80,G33&lt;=95),"B","C"))</f>
+      <c r="H33" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I33" s="76">
-        <f t="shared" si="10"/>
+      <c r="I33" s="73">
+        <f t="shared" si="11"/>
         <v>61.966666666666661</v>
       </c>
-      <c r="J33" s="76">
-        <f t="shared" si="11"/>
+      <c r="J33" s="73">
+        <f t="shared" si="12"/>
         <v>0.49888765156985965</v>
       </c>
-      <c r="K33" s="76">
-        <f t="shared" si="12"/>
+      <c r="K33" s="73">
+        <f t="shared" si="13"/>
         <v>0.80509034680450731</v>
       </c>
-      <c r="L33" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L33" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M33" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M33" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
-      <c r="O33" s="84"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="85"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="82"/>
     </row>
     <row r="34">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="75">
+      <c r="B34" s="72">
         <f>14.3*G1</f>
         <v>57.200000000000003</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="72">
         <f>B34-0.2*G1</f>
         <v>56.400000000000006</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="72">
         <f>B34+0.3*G1</f>
         <v>58.400000000000006</v>
       </c>
-      <c r="E34" s="75">
-        <f>SUM(B34:D34)</f>
+      <c r="E34" s="72">
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="73">
         <f>E34/E47*100</f>
         <v>3.4439260757263277</v>
       </c>
-      <c r="G34" s="76">
-        <f>G33+F34</f>
+      <c r="G34" s="73">
+        <f t="shared" si="16"/>
         <v>77.786676811565187</v>
       </c>
-      <c r="H34" s="73" t="str">
-        <f>IF(AND(G34&gt;0,G34&lt;=80),"A",IF(AND(G34&gt;80,G34&lt;=95),"B","C"))</f>
+      <c r="H34" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>A</v>
       </c>
-      <c r="I34" s="76">
-        <f>SUM(B34:D34)/3</f>
+      <c r="I34" s="73">
+        <f t="shared" si="11"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="J34" s="76">
-        <f>SQRT(((B34-I34)^2+(C34-I34)^2+(D34-I34)^2)/3)</f>
+      <c r="J34" s="73">
+        <f t="shared" si="12"/>
         <v>0.82192186706253034</v>
       </c>
-      <c r="K34" s="76">
-        <f>J34/I34*100</f>
+      <c r="K34" s="73">
+        <f t="shared" si="13"/>
         <v>1.4335846518532507</v>
       </c>
-      <c r="L34" s="13" t="str">
-        <f>IF(AND(K34&gt;0,K34&lt;=9),"X",IF(AND(K34&gt;10,K34&lt;=25),"Y","Z"))</f>
+      <c r="L34" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M34" s="22" t="str">
-        <f>_xlfn.CONCAT(H34,L34)</f>
+      <c r="M34" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>AX</v>
       </c>
-      <c r="O34" s="84"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="85"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="82"/>
     </row>
     <row r="35">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="75">
+      <c r="B35" s="72">
         <v>53.799999999999997</v>
       </c>
-      <c r="C35" s="75">
+      <c r="C35" s="72">
         <f>B35+0.1*G1</f>
         <v>54.199999999999996</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="72">
         <f>B35+0.5*G1</f>
         <v>55.799999999999997</v>
       </c>
-      <c r="E35" s="75">
-        <f>SUM(B35:D35)</f>
+      <c r="E35" s="72">
+        <f t="shared" si="9"/>
         <v>163.80000000000001</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="73">
         <f>E35/E47*100</f>
         <v>3.2797389023486776</v>
       </c>
-      <c r="G35" s="76">
-        <f>G34+F35</f>
+      <c r="G35" s="73">
+        <f t="shared" si="16"/>
         <v>81.066415713913869</v>
       </c>
-      <c r="H35" s="86" t="str">
-        <f>IF(AND(G35&gt;0,G35&lt;=80),"A",IF(AND(G35&gt;80,G35&lt;=95),"B","C"))</f>
+      <c r="H35" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I35" s="76">
-        <f>SUM(B35:D35)/3</f>
+      <c r="I35" s="73">
+        <f t="shared" si="11"/>
         <v>54.600000000000001</v>
       </c>
-      <c r="J35" s="76">
-        <f>SQRT(((B35-I35)^2+(C35-I35)^2+(D35-I35)^2)/3)</f>
+      <c r="J35" s="73">
+        <f t="shared" si="12"/>
         <v>0.86409875978771489</v>
       </c>
-      <c r="K35" s="76">
-        <f>J35/I35*100</f>
+      <c r="K35" s="73">
+        <f t="shared" si="13"/>
         <v>1.5825984611496609</v>
       </c>
-      <c r="L35" s="13" t="str">
-        <f>IF(AND(K35&gt;0,K35&lt;=9),"X",IF(AND(K35&gt;10,K35&lt;=25),"Y","Z"))</f>
+      <c r="L35" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M35" s="22" t="str">
-        <f>_xlfn.CONCAT(H35,L35)</f>
+      <c r="M35" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BX</v>
       </c>
-      <c r="O35" s="84"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="85"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="82"/>
     </row>
     <row r="36">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="75">
+      <c r="B36" s="72">
         <v>55.600000000000001</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="72">
         <f>B36-0.3*G1</f>
         <v>54.399999999999999</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="72">
         <f>B36-0.5*G1</f>
         <v>53.600000000000001</v>
       </c>
-      <c r="E36" s="75">
-        <f>SUM(B36:D36)</f>
+      <c r="E36" s="72">
+        <f t="shared" si="9"/>
         <v>163.59999999999999</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="73">
         <f>E36/E47*100</f>
         <v>3.2757343371443439</v>
       </c>
-      <c r="G36" s="76">
-        <f>G35+F36</f>
+      <c r="G36" s="73">
+        <f t="shared" si="16"/>
         <v>84.342150051058212</v>
       </c>
-      <c r="H36" s="86" t="str">
-        <f>IF(AND(G36&gt;0,G36&lt;=80),"A",IF(AND(G36&gt;80,G36&lt;=95),"B","C"))</f>
+      <c r="H36" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I36" s="76">
-        <f>SUM(B36:D36)/3</f>
+      <c r="I36" s="73">
+        <f t="shared" si="11"/>
         <v>54.533333333333331</v>
       </c>
-      <c r="J36" s="76">
-        <f>SQRT(((B36-I36)^2+(C36-I36)^2+(D36-I36)^2)/3)</f>
+      <c r="J36" s="73">
+        <f t="shared" si="12"/>
         <v>0.82192186706253034</v>
       </c>
-      <c r="K36" s="76">
-        <f>J36/I36*100</f>
+      <c r="K36" s="73">
+        <f t="shared" si="13"/>
         <v>1.5071916877674763</v>
       </c>
-      <c r="L36" s="13" t="str">
-        <f>IF(AND(K36&gt;0,K36&lt;=9),"X",IF(AND(K36&gt;10,K36&lt;=25),"Y","Z"))</f>
+      <c r="L36" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M36" s="22" t="str">
-        <f>_xlfn.CONCAT(H36,L36)</f>
+      <c r="M36" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BX</v>
       </c>
-      <c r="O36" s="84"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="85"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="82"/>
     </row>
     <row r="37">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="72">
         <f>11.8*G1</f>
         <v>47.200000000000003</v>
       </c>
-      <c r="C37" s="75">
+      <c r="C37" s="72">
         <f>B37+0.8*G1</f>
         <v>50.400000000000006</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="72">
         <f>B37-0.2*G1</f>
         <v>46.400000000000006</v>
       </c>
-      <c r="E37" s="75">
-        <f>SUM(B37:D37)</f>
+      <c r="E37" s="72">
+        <f t="shared" si="9"/>
         <v>144</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="73">
         <f>E37/E47*100</f>
         <v>2.8832869471197164</v>
       </c>
-      <c r="G37" s="76">
-        <f>G36+F37</f>
+      <c r="G37" s="73">
+        <f t="shared" si="16"/>
         <v>87.225436998177926</v>
       </c>
-      <c r="H37" s="86" t="str">
-        <f>IF(AND(G37&gt;0,G37&lt;=80),"A",IF(AND(G37&gt;80,G37&lt;=95),"B","C"))</f>
+      <c r="H37" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I37" s="76">
-        <f>SUM(B37:D37)/3</f>
+      <c r="I37" s="73">
+        <f t="shared" si="11"/>
         <v>48</v>
       </c>
-      <c r="J37" s="76">
-        <f>SQRT(((B37-I37)^2+(C37-I37)^2+(D37-I37)^2)/3)</f>
+      <c r="J37" s="73">
+        <f t="shared" si="12"/>
         <v>1.7281975195754298</v>
       </c>
-      <c r="K37" s="76">
-        <f>J37/I37*100</f>
+      <c r="K37" s="73">
+        <f t="shared" si="13"/>
         <v>3.6004114991154785</v>
       </c>
-      <c r="L37" s="13" t="str">
-        <f>IF(AND(K37&gt;0,K37&lt;=9),"X",IF(AND(K37&gt;10,K37&lt;=25),"Y","Z"))</f>
+      <c r="L37" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M37" s="22" t="str">
-        <f>_xlfn.CONCAT(H37,L37)</f>
+      <c r="M37" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BX</v>
       </c>
-      <c r="O37" s="84"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="85"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="82"/>
     </row>
     <row r="38">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="72">
         <v>31.5</v>
       </c>
-      <c r="C38" s="75">
+      <c r="C38" s="72">
         <f>B38+1.9*G1</f>
         <v>39.100000000000001</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="72">
         <f>B14-0.3*G1</f>
         <v>46</v>
       </c>
-      <c r="E38" s="75">
-        <f>SUM(B38:D38)</f>
+      <c r="E38" s="72">
+        <f t="shared" si="9"/>
         <v>116.59999999999999</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="73">
         <f>E38/E47*100</f>
         <v>2.3346615141261036</v>
       </c>
-      <c r="G38" s="76">
-        <f>G37+F38</f>
+      <c r="G38" s="73">
+        <f t="shared" si="16"/>
         <v>89.560098512304023</v>
       </c>
-      <c r="H38" s="86" t="str">
-        <f>IF(AND(G38&gt;0,G38&lt;=80),"A",IF(AND(G38&gt;80,G38&lt;=95),"B","C"))</f>
+      <c r="H38" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I38" s="76">
-        <f>SUM(B38:D38)/3</f>
+      <c r="I38" s="73">
+        <f t="shared" si="11"/>
         <v>38.866666666666667</v>
       </c>
-      <c r="J38" s="76">
-        <f>SQRT(((B38-I38)^2+(C38-I38)^2+(D38-I38)^2)/3)</f>
+      <c r="J38" s="73">
+        <f t="shared" si="12"/>
         <v>5.9218990947912049</v>
       </c>
-      <c r="K38" s="76">
-        <f>J38/I38*100</f>
+      <c r="K38" s="73">
+        <f t="shared" si="13"/>
         <v>15.236447070646324</v>
       </c>
-      <c r="L38" s="13" t="str">
-        <f>IF(AND(K38&gt;0,K38&lt;=9),"X",IF(AND(K38&gt;10,K38&lt;=25),"Y","Z"))</f>
+      <c r="L38" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="M38" s="22" t="str">
-        <f>_xlfn.CONCAT(H38,L38)</f>
+      <c r="M38" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BY</v>
       </c>
-      <c r="O38" s="84"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="85"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="82"/>
     </row>
     <row r="39">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="72">
         <f>8.4*G1</f>
         <v>33.600000000000001</v>
       </c>
-      <c r="C39" s="75">
+      <c r="C39" s="72">
         <f>B39+0.5*G1</f>
         <v>35.600000000000001</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="72">
         <f>B39+0.7*G1</f>
         <v>36.399999999999999</v>
       </c>
-      <c r="E39" s="75">
-        <f>SUM(B39:D39)</f>
+      <c r="E39" s="72">
+        <f t="shared" si="9"/>
         <v>105.59999999999999</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="73">
         <f>E39/E47*100</f>
         <v>2.1144104278877918</v>
       </c>
-      <c r="G39" s="76">
-        <f>G38+F39</f>
+      <c r="G39" s="73">
+        <f t="shared" si="16"/>
         <v>91.674508940191814</v>
       </c>
-      <c r="H39" s="86" t="str">
-        <f>IF(AND(G39&gt;0,G39&lt;=80),"A",IF(AND(G39&gt;80,G39&lt;=95),"B","C"))</f>
+      <c r="H39" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I39" s="76">
-        <f>SUM(B39:D39)/3</f>
+      <c r="I39" s="73">
+        <f t="shared" si="11"/>
         <v>35.199999999999996</v>
       </c>
-      <c r="J39" s="76">
-        <f>SQRT(((B39-I39)^2+(C39-I39)^2+(D39-I39)^2)/3)</f>
+      <c r="J39" s="73">
+        <f t="shared" si="12"/>
         <v>1.1775681155103785</v>
       </c>
-      <c r="K39" s="76">
-        <f>J39/I39*100</f>
+      <c r="K39" s="73">
+        <f t="shared" si="13"/>
         <v>3.3453639645181212</v>
       </c>
-      <c r="L39" s="13" t="str">
-        <f>IF(AND(K39&gt;0,K39&lt;=9),"X",IF(AND(K39&gt;10,K39&lt;=25),"Y","Z"))</f>
+      <c r="L39" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M39" s="22" t="str">
-        <f>_xlfn.CONCAT(H39,L39)</f>
+      <c r="M39" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BX</v>
       </c>
-      <c r="O39" s="84"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="85"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="82"/>
     </row>
     <row r="40">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="72">
         <v>30.199999999999999</v>
       </c>
-      <c r="C40" s="75">
+      <c r="C40" s="72">
         <f>B40+1.1*G1</f>
         <v>34.600000000000001</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="72">
         <f>B40+0.8*G1</f>
         <v>33.399999999999999</v>
       </c>
-      <c r="E40" s="75">
+      <c r="E40" s="72">
         <f t="shared" si="9"/>
         <v>98.199999999999989</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="73">
         <f>E40/E47*100</f>
         <v>1.9662415153274728</v>
       </c>
-      <c r="G40" s="76">
-        <f>G39+F40</f>
+      <c r="G40" s="73">
+        <f t="shared" si="16"/>
         <v>93.640750455519282</v>
       </c>
-      <c r="H40" s="86" t="str">
-        <f>IF(AND(G40&gt;0,G40&lt;=80),"A",IF(AND(G40&gt;80,G40&lt;=95),"B","C"))</f>
+      <c r="H40" s="83" t="str">
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
-      <c r="I40" s="76">
-        <f t="shared" si="10"/>
+      <c r="I40" s="73">
+        <f t="shared" si="11"/>
         <v>32.733333333333327</v>
       </c>
-      <c r="J40" s="76">
-        <f t="shared" si="11"/>
+      <c r="J40" s="73">
+        <f t="shared" si="12"/>
         <v>1.8571184369578833</v>
       </c>
-      <c r="K40" s="76">
-        <f t="shared" si="12"/>
+      <c r="K40" s="73">
+        <f t="shared" si="13"/>
         <v>5.67347791331329</v>
       </c>
-      <c r="L40" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L40" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M40" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M40" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>BX</v>
       </c>
-      <c r="O40" s="84"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="85"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="82"/>
     </row>
     <row r="41">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="72">
         <v>26.899999999999999</v>
       </c>
-      <c r="C41" s="75">
+      <c r="C41" s="72">
         <f>B41+0.7*G1</f>
         <v>29.699999999999999</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="72">
         <f>B41+0.3*G1</f>
         <v>28.099999999999998</v>
       </c>
-      <c r="E41" s="75">
+      <c r="E41" s="72">
         <f t="shared" si="9"/>
         <v>84.699999999999989</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="73">
         <f>E41/E47*100</f>
         <v>1.6959333640349996</v>
       </c>
-      <c r="G41" s="76">
-        <f>G40+F41</f>
+      <c r="G41" s="73">
+        <f t="shared" si="16"/>
         <v>95.336683819554281</v>
       </c>
-      <c r="H41" s="87" t="str">
-        <f>IF(AND(G41&gt;0,G41&lt;=80),"A",IF(AND(G41&gt;80,G41&lt;=95),"B","C"))</f>
+      <c r="H41" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I41" s="76">
-        <f t="shared" si="10"/>
+      <c r="I41" s="73">
+        <f t="shared" si="11"/>
         <v>28.233333333333331</v>
       </c>
-      <c r="J41" s="76">
-        <f t="shared" si="11"/>
+      <c r="J41" s="73">
+        <f t="shared" si="12"/>
         <v>1.1469767022723505</v>
       </c>
-      <c r="K41" s="76">
-        <f t="shared" si="12"/>
+      <c r="K41" s="73">
+        <f t="shared" si="13"/>
         <v>4.0624912713306403</v>
       </c>
-      <c r="L41" s="13" t="str">
-        <f t="shared" si="13"/>
+      <c r="L41" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M41" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="M41" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>CX</v>
       </c>
-      <c r="O41" s="84"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="85"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="82"/>
     </row>
     <row r="42">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="72">
         <v>15.9</v>
       </c>
-      <c r="C42" s="75">
+      <c r="C42" s="72">
         <f>B42+1.3*G1</f>
         <v>21.100000000000001</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="72">
         <f>B42+1*G1</f>
         <v>19.899999999999999</v>
       </c>
-      <c r="E42" s="75">
-        <f>SUM(B42:D42)</f>
+      <c r="E42" s="72">
+        <f t="shared" si="9"/>
         <v>56.899999999999999</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="73">
         <f>E42/E47*100</f>
         <v>1.1392988006327214</v>
       </c>
-      <c r="G42" s="76">
-        <f>G41+F42</f>
+      <c r="G42" s="73">
+        <f t="shared" si="16"/>
         <v>96.475982620186997</v>
       </c>
-      <c r="H42" s="87" t="str">
-        <f>IF(AND(G42&gt;0,G42&lt;=80),"A",IF(AND(G42&gt;80,G42&lt;=95),"B","C"))</f>
+      <c r="H42" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I42" s="76">
-        <f>SUM(B42:D42)/3</f>
+      <c r="I42" s="73">
+        <f t="shared" si="11"/>
         <v>18.966666666666665</v>
       </c>
-      <c r="J42" s="76">
-        <f>SQRT(((B42-I42)^2+(C42-I42)^2+(D42-I42)^2)/3)</f>
+      <c r="J42" s="73">
+        <f t="shared" si="12"/>
         <v>2.223110933404409</v>
       </c>
-      <c r="K42" s="76">
-        <f>J42/I42*100</f>
+      <c r="K42" s="73">
+        <f t="shared" si="13"/>
         <v>11.721147276297412</v>
       </c>
-      <c r="L42" s="13" t="str">
-        <f>IF(AND(K42&gt;0,K42&lt;=9),"X",IF(AND(K42&gt;10,K42&lt;=25),"Y","Z"))</f>
+      <c r="L42" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="M42" s="22" t="str">
-        <f>_xlfn.CONCAT(H42,L42)</f>
+      <c r="M42" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>CY</v>
       </c>
-      <c r="O42" s="84"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="85"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="82"/>
     </row>
     <row r="43">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="72">
         <v>17</v>
       </c>
-      <c r="C43" s="75">
+      <c r="C43" s="72">
         <f>B43+0.2*G1</f>
         <v>17.800000000000001</v>
       </c>
-      <c r="D43" s="75">
+      <c r="D43" s="72">
         <f>B43+0.4*G1</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="E43" s="75">
-        <f>SUM(B43:D43)</f>
+      <c r="E43" s="72">
+        <f t="shared" si="9"/>
         <v>53.399999999999999</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="73">
         <f>E43/E47*100</f>
         <v>1.0692189095568949</v>
       </c>
-      <c r="G43" s="76">
-        <f>G42+F43</f>
+      <c r="G43" s="73">
+        <f t="shared" si="16"/>
         <v>97.545201529743892</v>
       </c>
-      <c r="H43" s="87" t="str">
-        <f>IF(AND(G43&gt;0,G43&lt;=80),"A",IF(AND(G43&gt;80,G43&lt;=95),"B","C"))</f>
+      <c r="H43" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I43" s="76">
-        <f>SUM(B43:D43)/3</f>
+      <c r="I43" s="73">
+        <f t="shared" si="11"/>
         <v>17.800000000000001</v>
       </c>
-      <c r="J43" s="76">
-        <f>SQRT(((B43-I43)^2+(C43-I43)^2+(D43-I43)^2)/3)</f>
+      <c r="J43" s="73">
+        <f t="shared" si="12"/>
         <v>0.65319726474218143</v>
       </c>
-      <c r="K43" s="76">
-        <f>J43/I43*100</f>
+      <c r="K43" s="73">
+        <f t="shared" si="13"/>
         <v>3.6696475547313563</v>
       </c>
-      <c r="L43" s="13" t="str">
-        <f>IF(AND(K43&gt;0,K43&lt;=9),"X",IF(AND(K43&gt;10,K43&lt;=25),"Y","Z"))</f>
+      <c r="L43" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M43" s="22" t="str">
-        <f>_xlfn.CONCAT(H43,L43)</f>
+      <c r="M43" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>CX</v>
       </c>
-      <c r="O43" s="84"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="85"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="82"/>
     </row>
     <row r="44">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="72">
         <v>15.199999999999999</v>
       </c>
-      <c r="C44" s="75">
+      <c r="C44" s="72">
         <f>B44-0.8*G1</f>
         <v>12</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="72">
         <f>B44+1.3*G1</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="E44" s="75">
-        <f>SUM(B44:D44)</f>
+      <c r="E44" s="72">
+        <f t="shared" si="9"/>
         <v>47.599999999999994</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="73">
         <f>E44/E47*100</f>
         <v>0.95308651863123939</v>
       </c>
-      <c r="G44" s="76">
-        <f>G43+F44</f>
+      <c r="G44" s="73">
+        <f t="shared" si="16"/>
         <v>98.49828804837513</v>
       </c>
-      <c r="H44" s="87" t="str">
-        <f>IF(AND(G44&gt;0,G44&lt;=80),"A",IF(AND(G44&gt;80,G44&lt;=95),"B","C"))</f>
+      <c r="H44" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I44" s="76">
-        <f>SUM(B44:D44)/3</f>
+      <c r="I44" s="73">
+        <f t="shared" si="11"/>
         <v>15.866666666666665</v>
       </c>
-      <c r="J44" s="76">
-        <f>SQRT(((B44-I44)^2+(C44-I44)^2+(D44-I44)^2)/3)</f>
+      <c r="J44" s="73">
+        <f t="shared" si="12"/>
         <v>3.4615346628659114</v>
       </c>
-      <c r="K44" s="76">
-        <f>J44/I44*100</f>
+      <c r="K44" s="73">
+        <f t="shared" si="13"/>
         <v>21.816394934028853</v>
       </c>
-      <c r="L44" s="13" t="str">
-        <f>IF(AND(K44&gt;0,K44&lt;=9),"X",IF(AND(K44&gt;10,K44&lt;=25),"Y","Z"))</f>
+      <c r="L44" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>Y</v>
       </c>
-      <c r="M44" s="22" t="str">
-        <f>_xlfn.CONCAT(H44,L44)</f>
+      <c r="M44" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>CY</v>
       </c>
-      <c r="O44" s="84"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="85"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="82"/>
     </row>
     <row r="45">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="72">
         <v>15.4</v>
       </c>
-      <c r="C45" s="75">
+      <c r="C45" s="72">
         <f>B45-0.1*G1</f>
         <v>15</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D45" s="72">
         <f>B45+0.1*G1</f>
         <v>15.800000000000001</v>
       </c>
-      <c r="E45" s="75">
-        <f>SUM(B45:D45)</f>
+      <c r="E45" s="72">
+        <f t="shared" si="9"/>
         <v>46.200000000000003</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="73">
         <f>E45/E47*100</f>
         <v>0.92505456220090909</v>
       </c>
-      <c r="G45" s="76">
-        <f>G44+F45</f>
+      <c r="G45" s="73">
+        <f t="shared" si="16"/>
         <v>99.423342610576043</v>
       </c>
-      <c r="H45" s="87" t="str">
-        <f>IF(AND(G45&gt;0,G45&lt;=80),"A",IF(AND(G45&gt;80,G45&lt;=95),"B","C"))</f>
+      <c r="H45" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I45" s="76">
-        <f>SUM(B45:D45)/3</f>
+      <c r="I45" s="73">
+        <f t="shared" si="11"/>
         <v>15.4</v>
       </c>
-      <c r="J45" s="76">
-        <f>SQRT(((B45-I45)^2+(C45-I45)^2+(D45-I45)^2)/3)</f>
+      <c r="J45" s="73">
+        <f t="shared" si="12"/>
         <v>0.32659863237109071</v>
       </c>
-      <c r="K45" s="76">
-        <f>J45/I45*100</f>
+      <c r="K45" s="73">
+        <f t="shared" si="13"/>
         <v>2.1207703400720179</v>
       </c>
-      <c r="L45" s="13" t="str">
-        <f>IF(AND(K45&gt;0,K45&lt;=9),"X",IF(AND(K45&gt;10,K45&lt;=25),"Y","Z"))</f>
+      <c r="L45" s="12" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M45" s="22" t="str">
-        <f>_xlfn.CONCAT(H45,L45)</f>
+      <c r="M45" s="21" t="str">
+        <f t="shared" si="15"/>
         <v>CX</v>
       </c>
-      <c r="O45" s="84"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="85"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="82"/>
     </row>
     <row r="46">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="89">
+      <c r="B46" s="86">
         <f>2.4*G1</f>
         <v>9.5999999999999996</v>
       </c>
-      <c r="C46" s="89">
+      <c r="C46" s="86">
         <f>B46+0.1*G1</f>
         <v>10</v>
       </c>
-      <c r="D46" s="89">
+      <c r="D46" s="86">
         <f>B46-0.1*G1</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="E46" s="89">
-        <f>SUM(B46:D46)</f>
+      <c r="E46" s="86">
+        <f t="shared" si="9"/>
         <v>28.800000000000001</v>
       </c>
-      <c r="F46" s="90">
+      <c r="F46" s="87">
         <f>E46/E47*100</f>
         <v>0.57665738942394329</v>
       </c>
-      <c r="G46" s="76">
-        <f>G45+F46</f>
+      <c r="G46" s="73">
+        <f t="shared" si="16"/>
         <v>99.999999999999986</v>
       </c>
-      <c r="H46" s="87" t="str">
-        <f>IF(AND(G46&gt;0,G46&lt;=80),"A",IF(AND(G46&gt;80,G46&lt;=95),"B","C"))</f>
+      <c r="H46" s="84" t="str">
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
-      <c r="I46" s="90">
-        <f>SUM(B46:D46)/3</f>
+      <c r="I46" s="87">
+        <f t="shared" si="11"/>
         <v>9.5999999999999996</v>
       </c>
-      <c r="J46" s="90">
-        <f>SQRT(((B46-I46)^2+(C46-I46)^2+(D46-I46)^2)/3)</f>
+      <c r="J46" s="87">
+        <f t="shared" si="12"/>
         <v>0.32659863237109071</v>
       </c>
-      <c r="K46" s="90">
-        <f>J46/I46*100</f>
+      <c r="K46" s="87">
+        <f t="shared" si="13"/>
         <v>3.4020690871988619</v>
       </c>
-      <c r="L46" s="91" t="str">
-        <f>IF(AND(K46&gt;0,K46&lt;=9),"X",IF(AND(K46&gt;10,K46&lt;=25),"Y","Z"))</f>
+      <c r="L46" s="88" t="str">
+        <f t="shared" si="14"/>
         <v>X</v>
       </c>
-      <c r="M46" s="92" t="str">
-        <f>_xlfn.CONCAT(H46,L46)</f>
+      <c r="M46" s="89" t="str">
+        <f t="shared" si="15"/>
         <v>CX</v>
       </c>
-      <c r="O46" s="84"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="85"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="82"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="93">
+      <c r="B47" s="90">
         <f>SUM(B27:B46)</f>
         <v>1643.8</v>
       </c>
-      <c r="C47" s="93">
+      <c r="C47" s="90">
         <f>SUM(C27:C46)</f>
         <v>1670.1999999999998</v>
       </c>
-      <c r="D47" s="93">
+      <c r="D47" s="90">
         <f>SUM(D27:D46)</f>
         <v>1680.3000000000002</v>
       </c>
-      <c r="E47" s="93">
+      <c r="E47" s="90">
         <f>SUM(E27:E46)</f>
         <v>4994.3000000000002</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="91">
         <f>SUM(F27:F46)</f>
         <v>99.999999999999986</v>
       </c>
@@ -6104,12 +6097,12 @@
       <c r="M47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O47" s="95"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="97"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="94"/>
     </row>
     <row r="48" ht="14.25">
       <c r="B48" s="4"/>
@@ -6140,7 +6133,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>